--- a/_Drive/Publicacoes/jacare.xlsx
+++ b/_Drive/Publicacoes/jacare.xlsx
@@ -8,442 +8,1388 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjOkISXjTrS1D2mS7kAhhq0ipNqDQ=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="VyG4QOrJYQ0PuJq/Gf4LEjYTdKhVX7QnT5R/dPfyKdY="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>DOI</t>
   </si>
   <si>
-    <t>10.1007/s11669-010-9846-x</t>
-  </si>
-  <si>
-    <t>10.1002/3527607285.ch54</t>
-  </si>
-  <si>
-    <t>10.1007/BF0273644</t>
-  </si>
-  <si>
-    <t>10.1021/ic401413f</t>
-  </si>
-  <si>
-    <t>10.1016/j.ijrmhm.2012.04.008</t>
-  </si>
-  <si>
-    <t>10.1007/s11669-020-00787-4</t>
-  </si>
-  <si>
-    <t>10.3139/146.111952</t>
-  </si>
-  <si>
-    <t>10.1016/j.jallcom.2006.08.159</t>
-  </si>
-  <si>
-    <t>10.1016/j.jallcom.2010.08.019</t>
-  </si>
-  <si>
-    <t>10.1007/s11669-008-9390-0</t>
-  </si>
-  <si>
-    <t>10.1016/j.intermet.2006.10.054</t>
-  </si>
-  <si>
-    <t>10.1361/105497103770330758</t>
-  </si>
-  <si>
-    <t>10.1016/s0966-9795(02)00125-5</t>
-  </si>
-  <si>
-    <t>10.1016/j.jallcom.2019.06.186</t>
-  </si>
-  <si>
-    <t>10.1016/j.jallcom.2019.04.172</t>
-  </si>
-  <si>
-    <t>10.1016/s1044-5803(01)00176-0</t>
-  </si>
-  <si>
-    <t>10.1016/j.mtcomm.2020.101282</t>
-  </si>
-  <si>
-    <t>10.1088/0953-2048/16/4/317</t>
-  </si>
-  <si>
-    <t>10.1007/s40430-018-1375-2</t>
-  </si>
-  <si>
-    <t>10.1016/j.jallcom.2012.10.016</t>
-  </si>
-  <si>
-    <t>10.1016/j.mtcomm.2019.100767</t>
-  </si>
-  <si>
-    <t>10.1016/s0263-4368(00)00020-2</t>
-  </si>
-  <si>
-    <t>10.1007/s11665-013-0531-1</t>
-  </si>
-  <si>
-    <t>10.1007/s11669-020-00819-z</t>
-  </si>
-  <si>
-    <t>10.1016/j.calphad.2020.102196</t>
-  </si>
-  <si>
-    <t>10.5539/jmsr.v9n1p32</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/msf.802.20</t>
-  </si>
-  <si>
-    <t>10.1007/s11665-018-3699-6</t>
-  </si>
-  <si>
-    <t>10.1590/1980-5373-mr-2019-0178</t>
-  </si>
-  <si>
-    <t>10.1016/j.jallcom.2019.05.196</t>
-  </si>
-  <si>
-    <t>10.5006/1.3585276</t>
-  </si>
-  <si>
-    <t>10.1007/s11085-014-9517-0</t>
-  </si>
-  <si>
-    <t>10.1590/1980-5373-mr-2017-0468</t>
-  </si>
-  <si>
-    <t>10.1016/j.calphad.2019.101676</t>
-  </si>
-  <si>
-    <t>10.1016/j.jallcom.2018.09.139</t>
-  </si>
-  <si>
-    <t>10.1016/j.surfcoat.2020.125675</t>
-  </si>
-  <si>
-    <t>10.1016/j.jallcom.2011.11.035</t>
-  </si>
-  <si>
-    <t>10.1007/s11661-021-06252-2</t>
-  </si>
-  <si>
-    <t>10.1016/j.matchar.2006.05.014</t>
-  </si>
-  <si>
-    <t>10.1590/1980-5373-mr-2017-0637</t>
-  </si>
-  <si>
-    <t>10.1016/j.ssc.2011.07.005</t>
-  </si>
-  <si>
-    <t>10.1590/s1516-14392010000300009</t>
-  </si>
-  <si>
-    <t>10.1016/j.calphad.2017.10.001</t>
-  </si>
-  <si>
-    <t>10.1007/s11669-009-9533-y</t>
-  </si>
-  <si>
-    <t>10.1007/s11665-013-0814-6</t>
-  </si>
-  <si>
-    <t>10.1007/s11669-015-0418-y</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2006.02.024</t>
-  </si>
-  <si>
-    <t>10.1590/1980-5373-mr-2017-0332</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/jmnm.20-21.139</t>
-  </si>
-  <si>
-    <t>10.3390/met9050589</t>
-  </si>
-  <si>
-    <t>10.1007/s11669-009-9610-2</t>
-  </si>
-  <si>
-    <t>10.1016/j.msec.2013.04.015</t>
-  </si>
-  <si>
-    <t>10.1016/j.jallcom.2014.07.026</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.660-661.405</t>
-  </si>
-  <si>
-    <t>10.1016/j.jmatprotec.2018.07.034</t>
-  </si>
-  <si>
-    <t>10.1016/S0263-4368(00)00021-4</t>
-  </si>
-  <si>
-    <t>10.1016/j.matchar.2005.10.001</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/msf.802.9</t>
-  </si>
-  <si>
-    <t>10.1016/j.jallcom.2013.04.070</t>
-  </si>
-  <si>
-    <t>10.1016/S1003-6326(18)64867-8</t>
-  </si>
-  <si>
-    <t>10.1016/j.intermet.2009.03.006</t>
-  </si>
-  <si>
-    <t>10.1007/s11669-020-00838-w</t>
-  </si>
-  <si>
-    <t>10.1109/TMAG.2009.2033460</t>
-  </si>
-  <si>
-    <t>10.1016/j.corsci.2019.108165</t>
-  </si>
-  <si>
-    <t>10.1016/S0966-9795(99)00088-6</t>
-  </si>
-  <si>
-    <t>10.1590/s1516-14392013005000172</t>
-  </si>
-  <si>
-    <t>10.1016/j.ijrmhm.2011.06.012</t>
-  </si>
-  <si>
-    <t>10.1590/1516-1439.343514</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.416-418.251</t>
-  </si>
-  <si>
-    <t>10.1016/j.jallcom.2003.09.117</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2018.05.078</t>
-  </si>
-  <si>
-    <t>10.1007/s11661-013-1607-0</t>
-  </si>
-  <si>
-    <t>10.1007/s11665-013-0565-4</t>
-  </si>
-  <si>
-    <t>10.1007/s11669-020-00802-8</t>
-  </si>
-  <si>
-    <t>10.1080/00084433.2017.1409946</t>
-  </si>
-  <si>
-    <t>10.1016/j.jssc.2012.02.009</t>
-  </si>
-  <si>
-    <t>10.1007/s11665-019-04014-1</t>
-  </si>
-  <si>
-    <t>10.1007/s11669-015-0374-6</t>
-  </si>
-  <si>
-    <t>10.1016/j.jallcom.2014.01.173</t>
-  </si>
-  <si>
-    <t>10.1016/j.intermet.2005.05.007</t>
-  </si>
-  <si>
-    <t>10.1016/j.calphad.2018.08.012</t>
-  </si>
-  <si>
-    <t>10.1007/s11085-020-10013-8</t>
-  </si>
-  <si>
-    <t>10.1016/j.jmmm.2009.03.067</t>
-  </si>
-  <si>
-    <t>10.1016/j.scriptamat.2021.113854</t>
-  </si>
-  <si>
-    <t>10.1016/j.matchar.2006.10.020</t>
-  </si>
-  <si>
-    <t>10.1007/s11665-016-2051-2</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2021.141170</t>
-  </si>
-  <si>
-    <t>10.1016/j.matchar.2006.10.015</t>
-  </si>
-  <si>
-    <t>10.1007/s11669-001-0074-2</t>
-  </si>
-  <si>
-    <t>10.1016/j.ijrmhm.2005.06.001</t>
-  </si>
-  <si>
-    <t>10.1007/s11669-014-0330-x</t>
-  </si>
-  <si>
-    <t>10.1016/j.jmrt.2018.12.020</t>
-  </si>
-  <si>
-    <t>10.1590/s1516-14392014005000018</t>
-  </si>
-  <si>
-    <t>10.1016/j.intermet.2003.09.015</t>
-  </si>
-  <si>
-    <t>10.1016/j.matchar.2005.09.009</t>
-  </si>
-  <si>
-    <t>10.1016/j.intermet.2006.05.016</t>
-  </si>
-  <si>
-    <t>10.1590/S1516-14392012005000015</t>
-  </si>
-  <si>
-    <t>10.1016/j.jssc.2012.01.060</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/jmnm.20-21.145</t>
-  </si>
-  <si>
-    <t>10.1016/j.ssc.2008.12.037</t>
-  </si>
-  <si>
-    <t>10.1016/j.matchar.2008.04.002</t>
-  </si>
-  <si>
-    <t>10.1016/j.intermet.2004.01.001</t>
-  </si>
-  <si>
-    <t>10.1007/s11665-016-2462-0</t>
-  </si>
-  <si>
-    <t>10.1016/j.intermet.2016.04.006</t>
-  </si>
-  <si>
-    <t>10.1016/j.actamat.2005.04.020</t>
-  </si>
-  <si>
-    <t>10.1590/1980-5373-MR-2016-0001</t>
-  </si>
-  <si>
-    <t>10.1016/s0039-9140(02)00471-x</t>
-  </si>
-  <si>
-    <t>10.1016/j.ijrmhm.2010.09.006</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/JMNM.20-21.201</t>
-  </si>
-  <si>
-    <t>10.1016/j.jallcom.2011.02.042</t>
-  </si>
-  <si>
-    <t>10.1016/s0921-5093(03)00650-6</t>
-  </si>
-  <si>
-    <t>10.1080/00084433.2017.1299907</t>
-  </si>
-  <si>
-    <t>10.1016/j.jallcom.2020.156463</t>
-  </si>
-  <si>
-    <t>10.3390/met8020082</t>
-  </si>
-  <si>
-    <t>10.1088/0953-2048/28/9/095016</t>
-  </si>
-  <si>
-    <t>10.1016/S0263-4368(99)00002-5</t>
-  </si>
-  <si>
-    <t>10.1016/j.jallcom.2014.02.179</t>
-  </si>
-  <si>
-    <t>10.1016/s0966-9795(02)00249-2</t>
-  </si>
-  <si>
-    <t>10.1590/1980-5373-mr-2019-0305</t>
-  </si>
-  <si>
-    <t>10.1590/1516-1439.329614</t>
-  </si>
-  <si>
-    <t>10.1007/s11669-004-0006-z</t>
-  </si>
-  <si>
-    <t>10.1111/j.1525-1594.2008.00546.x</t>
-  </si>
-  <si>
-    <t>10.1590/1980-5373-mr-2019-0599</t>
-  </si>
-  <si>
-    <t>10.1016/s0263-4368(99)00021-9</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/msf.805.199</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.869.952</t>
-  </si>
-  <si>
-    <t>10.1016/j.surfcoat.2021.126999</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.660-661.152</t>
-  </si>
-  <si>
-    <t>10.1016/j.matchar.2012.11.006</t>
-  </si>
-  <si>
-    <t>10.1016/j.jallcom.2011.09.081</t>
-  </si>
-  <si>
-    <t>10.1007/978-3-319-19443-1_24</t>
-  </si>
-  <si>
-    <t>10.1016/j.jallcom.2021.160411</t>
-  </si>
-  <si>
-    <t>10.1590/1980-5373-MR-2020-0361</t>
-  </si>
-  <si>
-    <t>10.1016/j.corsci.2021.109892</t>
-  </si>
-  <si>
-    <t>10.1016/j.calphad.2021.102321</t>
-  </si>
-  <si>
-    <t>10.1016/j.matlet.2021.131377</t>
-  </si>
-  <si>
-    <t>10.3390/met11111855</t>
-  </si>
-  <si>
-    <t>10.20964/2021.10.43</t>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1002/3527607285.ch54</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/978-3-319-19443-1_24</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/BF0273644</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11085-014-9517-0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11085-020-10013-8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11661-013-1607-0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11661-021-06252-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11665-013-0531-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11665-013-0565-4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11665-013-0814-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11665-016-2051-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11665-016-2462-0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11665-018-3699-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11665-019-04014-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11665-024-10456-z</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11669-001-0074-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11669-004-0006-z</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11669-008-9390-0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11669-009-9533-y</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11669-009-9610-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11669-010-9846-x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11669-014-0330-x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11669-015-0374-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11669-015-0418-y</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11669-020-00787-4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11669-020-00802-8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11669-020-00819-z</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11669-020-00838-w</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11669-022-00973-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11669-023-01026-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s40430-018-1375-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/S0263-4368(00)00021-4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/S0263-4368(99)00002-5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/S0966-9795(99)00088-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/S1003-6326(18)64867-8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.actamat.2005.04.020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.calphad.2017.10.001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.calphad.2018.08.012</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.calphad.2019.101676</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.calphad.2020.102196</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.calphad.2021.102321</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.calphad.2022.102522</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.calphad.2024.102663</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.calphad.2024.102669</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.calphad.2024.102699</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.corsci.2019.108165</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.corsci.2021.109892</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.corsci.2022.110342</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.ijrmhm.2005.06.001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.ijrmhm.2010.09.006</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.ijrmhm.2011.06.012</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.ijrmhm.2012.04.008</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.intermet.2003.09.015</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.intermet.2004.01.001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.intermet.2005.05.007</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.intermet.2006.05.016</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.intermet.2006.10.054</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.intermet.2009.03.006</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.intermet.2016.04.006</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jallcom.2003.09.117</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jallcom.2006.08.159</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jallcom.2010.08.019</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jallcom.2011.02.042</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jallcom.2011.09.081</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jallcom.2011.11.035</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jallcom.2012.10.016</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jallcom.2013.04.070</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jallcom.2014.01.173</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jallcom.2014.02.179</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jallcom.2014.07.026</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jallcom.2018.09.139</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jallcom.2019.04.172</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jallcom.2019.05.196</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jallcom.2019.06.186</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jallcom.2020.156463</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jallcom.2021.160411</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jallcom.2021.163258</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jmatprotec.2018.07.034</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jmmm.2009.03.067</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jmrt.2018.12.020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jssc.2012.01.060</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jssc.2012.02.009</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.matchar.2005.09.009</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.matchar.2005.10.001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.matchar.2006.05.014</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.matchar.2006.10.015</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.matchar.2006.10.020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.matchar.2008.04.002</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.matchar.2012.11.006</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.matlet.2021.131377</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.matlet.2022.132905</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2006.02.024</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2018.05.078</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2021.141170</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msec.2013.04.015</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.mtcomm.2019.100767</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.mtcomm.2020.101282</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.scriptamat.2021.113854</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.ssc.2008.12.037</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.ssc.2011.07.005</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.surfcoat.2020.125675</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.surfcoat.2021.126999</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/s0039-9140(02)00471-x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/s0263-4368(00)00020-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/s0263-4368(99)00021-9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/s0921-5093(03)00650-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/s0966-9795(02)00125-5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/s0966-9795(02)00249-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/s1044-5803(01)00176-0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1021/ic401413f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1080/00084433.2017.1299907</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1080/00084433.2017.1409946</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1088/0953-2048/16/4/317</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1088/0953-2048/28/9/095016</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1109/TMAG.2009.2033460</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1111/j.1525-1594.2008.00546.x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1361/105497103770330758</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/1516-1439.329614</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/1516-1439.343514</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/1517-7076-rmat-2022-0072</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/1980-5373-MR-2016-0001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/1980-5373-mr-2017-0332</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/1980-5373-mr-2017-0468</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/1980-5373-mr-2017-0637</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/1980-5373-mr-2019-0178</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/1980-5373-mr-2019-0305</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/1980-5373-mr-2019-0599</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/1980-5373-mr-2020-0361</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/1980-5373-mr-2024-0001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/S1516-14392012005000015</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/s1516-14392010000300009</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/s1516-14392013005000172</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/s1516-14392014005000018</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.20964/2021.10.43</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.3139/146.111952</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.3390/met11111855</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.3390/met12091508</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.3390/met8020082</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.3390/met9050589</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/JMNM.20-21.201</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.416-418.251</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.660-661.152</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.660-661.405</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.869.952</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/jmnm.20-21.139</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/jmnm.20-21.145</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/msf.802.20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/msf.802.9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/msf.805.199</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.5006/1.3585276</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.5539/jmsr.v9n1p32</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="Sans"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -452,26 +1398,16 @@
       <name val="Sans"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCFCFC"/>
-        <bgColor rgb="FFFCFCFC"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -480,26 +1416,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1378,78 +2303,110 @@
       </c>
     </row>
     <row r="132" ht="12.75" customHeight="1">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="133" ht="12.75" customHeight="1">
-      <c r="A133" s="4" t="s">
-        <v>127</v>
+      <c r="A133" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="134" ht="12.75" customHeight="1">
-      <c r="A134" s="5" t="s">
-        <v>82</v>
+      <c r="A134" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="135" ht="12.75" customHeight="1">
-      <c r="A135" s="5" t="s">
-        <v>38</v>
+      <c r="A135" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="136" ht="12.75" customHeight="1">
-      <c r="A136" s="4" t="s">
-        <v>84</v>
+      <c r="A136" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="137" ht="12.75" customHeight="1">
-      <c r="A137" s="4" t="s">
-        <v>87</v>
+      <c r="A137" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="138" ht="12.75" customHeight="1">
-      <c r="A138" s="4" t="s">
-        <v>132</v>
+      <c r="A138" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="139" ht="12.75" customHeight="1">
-      <c r="A139" s="6" t="s">
-        <v>133</v>
+      <c r="A139" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="140" ht="12.75" customHeight="1">
-      <c r="A140" s="6" t="s">
-        <v>134</v>
+      <c r="A140" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="141" ht="12.75" customHeight="1">
-      <c r="A141" s="6" t="s">
-        <v>135</v>
+      <c r="A141" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="142" ht="12.75" customHeight="1">
-      <c r="A142" s="6" t="s">
-        <v>136</v>
+      <c r="A142" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="143" ht="12.75" customHeight="1">
-      <c r="A143" s="6" t="s">
-        <v>137</v>
+      <c r="A143" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="144" ht="12.75" customHeight="1">
-      <c r="A144" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="145" ht="12.75" customHeight="1"/>
-    <row r="146" ht="12.75" customHeight="1"/>
-    <row r="147" ht="12.75" customHeight="1"/>
-    <row r="148" ht="12.75" customHeight="1"/>
-    <row r="149" ht="12.75" customHeight="1"/>
-    <row r="150" ht="12.75" customHeight="1"/>
-    <row r="151" ht="12.75" customHeight="1"/>
-    <row r="152" ht="12.75" customHeight="1"/>
+      <c r="A144" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" ht="12.75" customHeight="1">
+      <c r="A145" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" ht="12.75" customHeight="1">
+      <c r="A146" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" ht="12.75" customHeight="1">
+      <c r="A147" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" ht="12.75" customHeight="1">
+      <c r="A148" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" ht="12.75" customHeight="1">
+      <c r="A149" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" ht="12.75" customHeight="1">
+      <c r="A150" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" ht="12.75" customHeight="1">
+      <c r="A151" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" ht="12.75" customHeight="1">
+      <c r="A152" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
     <row r="153" ht="12.75" customHeight="1"/>
     <row r="154" ht="12.75" customHeight="1"/>
     <row r="155" ht="12.75" customHeight="1"/>
@@ -2299,6 +3256,159 @@
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A3"/>
+    <hyperlink r:id="rId3" ref="A4"/>
+    <hyperlink r:id="rId4" ref="A5"/>
+    <hyperlink r:id="rId5" ref="A6"/>
+    <hyperlink r:id="rId6" ref="A7"/>
+    <hyperlink r:id="rId7" ref="A8"/>
+    <hyperlink r:id="rId8" ref="A9"/>
+    <hyperlink r:id="rId9" ref="A10"/>
+    <hyperlink r:id="rId10" ref="A11"/>
+    <hyperlink r:id="rId11" ref="A12"/>
+    <hyperlink r:id="rId12" ref="A13"/>
+    <hyperlink r:id="rId13" ref="A14"/>
+    <hyperlink r:id="rId14" ref="A15"/>
+    <hyperlink r:id="rId15" ref="A16"/>
+    <hyperlink r:id="rId16" ref="A17"/>
+    <hyperlink r:id="rId17" ref="A18"/>
+    <hyperlink r:id="rId18" ref="A19"/>
+    <hyperlink r:id="rId19" ref="A20"/>
+    <hyperlink r:id="rId20" ref="A21"/>
+    <hyperlink r:id="rId21" ref="A22"/>
+    <hyperlink r:id="rId22" ref="A23"/>
+    <hyperlink r:id="rId23" ref="A24"/>
+    <hyperlink r:id="rId24" ref="A25"/>
+    <hyperlink r:id="rId25" ref="A26"/>
+    <hyperlink r:id="rId26" ref="A27"/>
+    <hyperlink r:id="rId27" ref="A28"/>
+    <hyperlink r:id="rId28" ref="A29"/>
+    <hyperlink r:id="rId29" ref="A30"/>
+    <hyperlink r:id="rId30" ref="A31"/>
+    <hyperlink r:id="rId31" ref="A32"/>
+    <hyperlink r:id="rId32" ref="A33"/>
+    <hyperlink r:id="rId33" ref="A34"/>
+    <hyperlink r:id="rId34" ref="A35"/>
+    <hyperlink r:id="rId35" ref="A36"/>
+    <hyperlink r:id="rId36" ref="A37"/>
+    <hyperlink r:id="rId37" ref="A38"/>
+    <hyperlink r:id="rId38" ref="A39"/>
+    <hyperlink r:id="rId39" ref="A40"/>
+    <hyperlink r:id="rId40" ref="A41"/>
+    <hyperlink r:id="rId41" ref="A42"/>
+    <hyperlink r:id="rId42" ref="A43"/>
+    <hyperlink r:id="rId43" ref="A44"/>
+    <hyperlink r:id="rId44" ref="A45"/>
+    <hyperlink r:id="rId45" ref="A46"/>
+    <hyperlink r:id="rId46" ref="A47"/>
+    <hyperlink r:id="rId47" ref="A48"/>
+    <hyperlink r:id="rId48" ref="A49"/>
+    <hyperlink r:id="rId49" ref="A50"/>
+    <hyperlink r:id="rId50" ref="A51"/>
+    <hyperlink r:id="rId51" ref="A52"/>
+    <hyperlink r:id="rId52" ref="A53"/>
+    <hyperlink r:id="rId53" ref="A54"/>
+    <hyperlink r:id="rId54" ref="A55"/>
+    <hyperlink r:id="rId55" ref="A56"/>
+    <hyperlink r:id="rId56" ref="A57"/>
+    <hyperlink r:id="rId57" ref="A58"/>
+    <hyperlink r:id="rId58" ref="A59"/>
+    <hyperlink r:id="rId59" ref="A60"/>
+    <hyperlink r:id="rId60" ref="A61"/>
+    <hyperlink r:id="rId61" ref="A62"/>
+    <hyperlink r:id="rId62" ref="A63"/>
+    <hyperlink r:id="rId63" ref="A64"/>
+    <hyperlink r:id="rId64" ref="A65"/>
+    <hyperlink r:id="rId65" ref="A66"/>
+    <hyperlink r:id="rId66" ref="A67"/>
+    <hyperlink r:id="rId67" ref="A68"/>
+    <hyperlink r:id="rId68" ref="A69"/>
+    <hyperlink r:id="rId69" ref="A70"/>
+    <hyperlink r:id="rId70" ref="A71"/>
+    <hyperlink r:id="rId71" ref="A72"/>
+    <hyperlink r:id="rId72" ref="A73"/>
+    <hyperlink r:id="rId73" ref="A74"/>
+    <hyperlink r:id="rId74" ref="A75"/>
+    <hyperlink r:id="rId75" ref="A76"/>
+    <hyperlink r:id="rId76" ref="A77"/>
+    <hyperlink r:id="rId77" ref="A78"/>
+    <hyperlink r:id="rId78" ref="A79"/>
+    <hyperlink r:id="rId79" ref="A80"/>
+    <hyperlink r:id="rId80" ref="A81"/>
+    <hyperlink r:id="rId81" ref="A82"/>
+    <hyperlink r:id="rId82" ref="A83"/>
+    <hyperlink r:id="rId83" ref="A84"/>
+    <hyperlink r:id="rId84" ref="A85"/>
+    <hyperlink r:id="rId85" ref="A86"/>
+    <hyperlink r:id="rId86" ref="A87"/>
+    <hyperlink r:id="rId87" ref="A88"/>
+    <hyperlink r:id="rId88" ref="A89"/>
+    <hyperlink r:id="rId89" ref="A90"/>
+    <hyperlink r:id="rId90" ref="A91"/>
+    <hyperlink r:id="rId91" ref="A92"/>
+    <hyperlink r:id="rId92" ref="A93"/>
+    <hyperlink r:id="rId93" ref="A94"/>
+    <hyperlink r:id="rId94" ref="A95"/>
+    <hyperlink r:id="rId95" ref="A96"/>
+    <hyperlink r:id="rId96" ref="A97"/>
+    <hyperlink r:id="rId97" ref="A98"/>
+    <hyperlink r:id="rId98" ref="A99"/>
+    <hyperlink r:id="rId99" ref="A100"/>
+    <hyperlink r:id="rId100" ref="A101"/>
+    <hyperlink r:id="rId101" ref="A102"/>
+    <hyperlink r:id="rId102" ref="A103"/>
+    <hyperlink r:id="rId103" ref="A104"/>
+    <hyperlink r:id="rId104" ref="A105"/>
+    <hyperlink r:id="rId105" ref="A106"/>
+    <hyperlink r:id="rId106" ref="A107"/>
+    <hyperlink r:id="rId107" ref="A108"/>
+    <hyperlink r:id="rId108" ref="A109"/>
+    <hyperlink r:id="rId109" ref="A110"/>
+    <hyperlink r:id="rId110" ref="A111"/>
+    <hyperlink r:id="rId111" ref="A112"/>
+    <hyperlink r:id="rId112" ref="A113"/>
+    <hyperlink r:id="rId113" ref="A114"/>
+    <hyperlink r:id="rId114" ref="A115"/>
+    <hyperlink r:id="rId115" ref="A116"/>
+    <hyperlink r:id="rId116" ref="A117"/>
+    <hyperlink r:id="rId117" ref="A118"/>
+    <hyperlink r:id="rId118" ref="A119"/>
+    <hyperlink r:id="rId119" ref="A120"/>
+    <hyperlink r:id="rId120" ref="A121"/>
+    <hyperlink r:id="rId121" ref="A122"/>
+    <hyperlink r:id="rId122" ref="A123"/>
+    <hyperlink r:id="rId123" ref="A124"/>
+    <hyperlink r:id="rId124" ref="A125"/>
+    <hyperlink r:id="rId125" ref="A126"/>
+    <hyperlink r:id="rId126" ref="A127"/>
+    <hyperlink r:id="rId127" ref="A128"/>
+    <hyperlink r:id="rId128" ref="A129"/>
+    <hyperlink r:id="rId129" ref="A130"/>
+    <hyperlink r:id="rId130" ref="A131"/>
+    <hyperlink r:id="rId131" ref="A132"/>
+    <hyperlink r:id="rId132" ref="A133"/>
+    <hyperlink r:id="rId133" ref="A134"/>
+    <hyperlink r:id="rId134" ref="A135"/>
+    <hyperlink r:id="rId135" ref="A136"/>
+    <hyperlink r:id="rId136" ref="A137"/>
+    <hyperlink r:id="rId137" ref="A138"/>
+    <hyperlink r:id="rId138" ref="A139"/>
+    <hyperlink r:id="rId139" ref="A140"/>
+    <hyperlink r:id="rId140" ref="A141"/>
+    <hyperlink r:id="rId141" ref="A142"/>
+    <hyperlink r:id="rId142" ref="A143"/>
+    <hyperlink r:id="rId143" ref="A144"/>
+    <hyperlink r:id="rId144" ref="A145"/>
+    <hyperlink r:id="rId145" ref="A146"/>
+    <hyperlink r:id="rId146" ref="A147"/>
+    <hyperlink r:id="rId147" ref="A148"/>
+    <hyperlink r:id="rId148" ref="A149"/>
+    <hyperlink r:id="rId149" ref="A150"/>
+    <hyperlink r:id="rId150" ref="A151"/>
+    <hyperlink r:id="rId151" ref="A152"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.6666666666666667" footer="0.0" header="0.0" left="1.0" right="1.0" top="1.6666666666666667"/>
   <pageSetup paperSize="9" cellComments="atEnd" orientation="portrait"/>
@@ -2306,6 +3416,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId152"/>
 </worksheet>
 </file>